--- a/static/templates_base_interna/4 AUDITORIA AGIL/5 Macroprocesos y Procesos Ahorro y Crédito.xlsx
+++ b/static/templates_base_interna/4 AUDITORIA AGIL/5 Macroprocesos y Procesos Ahorro y Crédito.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\2 ARCHIVOS AUDITORIA INTERNA\4 AUDITORIA AGIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\4 AUDITORIA AGIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A5E68-4A7E-4401-8559-33171786D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -605,19 +606,19 @@
     <t>Reviso</t>
   </si>
   <si>
-    <t xml:space="preserve">             Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">             Auditoría de Procesos</t>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Procesos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,23 +732,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,6 +748,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +792,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -856,7 +859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1175,21 +1184,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" customWidth="1"/>
@@ -1270,11 +1279,11 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="D8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1287,11 +1296,11 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1302,11 +1311,11 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="D10" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1317,11 +1326,11 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1342,1403 +1351,1403 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="F14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="F16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="F19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="F20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="F21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="9" t="s">
+      <c r="F23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="F24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="F25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="F26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="F27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="9" t="s">
+      <c r="F28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="9" t="s">
+      <c r="F29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="F30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>86</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="9" t="s">
+      <c r="F31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>91</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="9" t="s">
+      <c r="F32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>95</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="s">
+      <c r="H33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9" t="s">
+      <c r="F34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>104</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="s">
+      <c r="G35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="9" t="s">
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>114</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="s">
+      <c r="G37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>118</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="9" t="s">
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="9" t="s">
+      <c r="G39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>124</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="s">
+      <c r="G40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>127</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="9" t="s">
+      <c r="G41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>131</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="9" t="s">
+      <c r="G42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>134</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="9" t="s">
+      <c r="G43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>137</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="9" t="s">
+      <c r="G44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="s">
+      <c r="G45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>143</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="9" t="s">
+      <c r="G46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>146</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10" t="s">
+      <c r="G47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="4" t="s">
         <v>150</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="G48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="4" t="s">
         <v>153</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="F49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>156</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9" t="s">
+      <c r="G50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>159</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="9" t="s">
+      <c r="F51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>161</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="9" t="s">
+      <c r="F52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>164</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="9" t="s">
+      <c r="F53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>164</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9" t="s">
+      <c r="F54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9" t="s">
+      <c r="G55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="9" t="s">
+      <c r="F56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>172</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="9" t="s">
+      <c r="F57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>175</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="G58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="I58" s="4" t="s">
         <v>178</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9" t="s">
+      <c r="F59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>181</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9" t="s">
+      <c r="F60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>184</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9" t="s">
+      <c r="F61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>188</v>
       </c>
       <c r="J61" s="1"/>
@@ -2866,7 +2875,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="11"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2879,7 +2888,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="7" t="s">
         <v>189</v>
       </c>
       <c r="F72" s="1"/>
@@ -2981,6 +2990,12 @@
       <c r="K79" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
